--- a/Port Documentation SHIELD STM32F4 Februari 2019.xlsx
+++ b/Port Documentation SHIELD STM32F4 Februari 2019.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chakra Makara 2018\File Beroda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Zak\p\trui\ballll-283\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -683,30 +683,6 @@
     <t>line sensor depan</t>
   </si>
   <si>
-    <t>Proximity1</t>
-  </si>
-  <si>
-    <t>Proximity2</t>
-  </si>
-  <si>
-    <t>Proximity3</t>
-  </si>
-  <si>
-    <t>Proximity4</t>
-  </si>
-  <si>
-    <t>Proximity5</t>
-  </si>
-  <si>
-    <t>Proximity6</t>
-  </si>
-  <si>
-    <t>Proximity7</t>
-  </si>
-  <si>
-    <t>Proximity8</t>
-  </si>
-  <si>
     <t>Proximity9</t>
   </si>
   <si>
@@ -741,6 +717,30 @@
   </si>
   <si>
     <t>Switch kanan</t>
+  </si>
+  <si>
+    <t>Proximity7 / switch kiri</t>
+  </si>
+  <si>
+    <t>Proximity8 / switch kanan</t>
+  </si>
+  <si>
+    <t>Proximity1 / penendang</t>
+  </si>
+  <si>
+    <t>Proximity2 / kanan</t>
+  </si>
+  <si>
+    <t>Proximity3 / depan kanan</t>
+  </si>
+  <si>
+    <t>Proximity4 / depan kiri</t>
+  </si>
+  <si>
+    <t>Proximity5 / kiri</t>
+  </si>
+  <si>
+    <t>Proximity6 / belakang</t>
   </si>
 </sst>
 </file>
@@ -1487,8 +1487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="114" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15:F18"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1572,7 +1572,7 @@
         <v>8</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H3" s="40"/>
       <c r="I3" s="27" t="s">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="F4" s="60"/>
       <c r="G4" s="23" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="H4" s="40"/>
       <c r="I4" s="27" t="s">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="F5" s="60"/>
       <c r="G5" s="23" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="H5" s="40"/>
       <c r="I5" s="27" t="s">
@@ -1662,7 +1662,7 @@
       </c>
       <c r="F6" s="60"/>
       <c r="G6" s="23" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="H6" s="40"/>
       <c r="I6" s="27" t="s">
@@ -1692,7 +1692,7 @@
       </c>
       <c r="F7" s="60"/>
       <c r="G7" s="23" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="H7" s="40"/>
       <c r="I7" s="27" t="s">
@@ -1722,7 +1722,7 @@
       </c>
       <c r="F8" s="60"/>
       <c r="G8" s="23" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="H8" s="40"/>
       <c r="I8" s="27" t="s">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="23" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="H9" s="40"/>
       <c r="I9" s="27" t="s">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="F10" s="26"/>
       <c r="G10" s="23" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H10" s="40"/>
       <c r="I10" s="27" t="s">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="F11" s="26"/>
       <c r="G11" s="23" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="H11" s="40"/>
       <c r="I11" s="27" t="s">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="23" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="H12" s="40"/>
       <c r="I12" s="27" t="s">
@@ -1853,7 +1853,7 @@
         <v>39</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="H13" s="40"/>
       <c r="I13" s="27" t="s">
@@ -1874,7 +1874,7 @@
         <v>42</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="H14" s="40"/>
       <c r="I14" s="27" t="s">
@@ -2058,7 +2058,7 @@
         <v>68</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C25" s="58" t="s">
         <v>215</v>
@@ -2109,7 +2109,7 @@
         <v>74</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="E28" s="39" t="s">
         <v>75</v>
@@ -2125,13 +2125,13 @@
         <v>76</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E29" s="39" t="s">
         <v>77</v>
       </c>
       <c r="F29" s="57" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H29" s="40"/>
       <c r="K29" s="40"/>
@@ -2147,10 +2147,10 @@
         <v>79</v>
       </c>
       <c r="F30" s="56" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="G30" s="55" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="H30" s="40"/>
       <c r="K30" s="40"/>
@@ -2166,10 +2166,10 @@
         <v>81</v>
       </c>
       <c r="F31" s="57" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G31" s="55" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="H31" s="40"/>
       <c r="K31" s="40"/>
